--- a/Testing eGate.xlsx
+++ b/Testing eGate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\Pruebas eGate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27566A04-F826-40C3-9E7D-5E0D70C5A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D65532-4D39-4FB2-A529-D8214DB904A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
 2- Se contabiliza el pasajero.</t>
   </si>
   <si>
-    <t>Resultados Real</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1- Salta la alarma tailgate.
 </t>
@@ -144,9 +141,6 @@
     </r>
   </si>
   <si>
-    <t>Travesía irregular. Intrusión pasajero ágil</t>
-  </si>
-  <si>
     <t>Pasajero proboca alarma tailgate.</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>La transacción no se confirma</t>
   </si>
   <si>
-    <t>Travesía irregular. Intrusión pasajero no ágil</t>
-  </si>
-  <si>
     <t>1- El pasajero escanea la tarjeta de embarque.
 2- El pasajero recibe instrucción para atravesar las puertas.
 3- Las puertas se abren y alguien del otro lado de la puerta tapa el sensor 2.
@@ -214,9 +205,6 @@
   <si>
     <t>1-Saltan la alarmas intrusión y pasajero no detectado
 2- No contabiliza el pasajero.</t>
-  </si>
-  <si>
-    <t>Travesía irregular. Itrusión</t>
   </si>
   <si>
     <t>1- El pasajero debe tener una tarjeta de embarque.
@@ -274,9 +262,6 @@
     </r>
   </si>
   <si>
-    <t>Travesía irregular. Intrusión</t>
-  </si>
-  <si>
     <t>Pasajero escanea tarjeta de embarque y pasa en sentido contrario</t>
   </si>
   <si>
@@ -364,6 +349,21 @@
   <si>
     <t>1-Se mantienen las alarmas Intrusión y Tailgate.
 2- Se contabiliza el pasajero.</t>
+  </si>
+  <si>
+    <t>Resultado Real</t>
+  </si>
+  <si>
+    <t>Travesía irregular Intrusión, tapando sensor después de abrir las puertas para pasajero no ágil</t>
+  </si>
+  <si>
+    <t>Travesía irregular Intrusión, tapando sensor después de abrir las puertas para pasajero ágil</t>
+  </si>
+  <si>
+    <t>Travesía irregular Intrusión con sensor 2 tapado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travesía irregular Intrusión, pasajero atraviesa las puertas en sentido contrario </t>
   </si>
 </sst>
 </file>
@@ -549,14 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,12 +562,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,20 +872,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -923,10 +923,10 @@
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -938,7 +938,7 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -950,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -961,9 +961,9 @@
         <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -973,12 +973,12 @@
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
@@ -988,33 +988,33 @@
       <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -1022,96 +1022,96 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="11" t="s">
         <v>33</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>13</v>
@@ -1122,26 +1122,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -1149,23 +1149,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>13</v>
